--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15132" windowHeight="5748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15132" windowHeight="5748" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ContactData" sheetId="1" r:id="rId1"/>
+    <sheet name="DealsData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -57,6 +58,42 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>primaycontact</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>9681141163</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>Infosys</t>
+  </si>
+  <si>
+    <t>Sapient</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Thomson Reuters</t>
+  </si>
+  <si>
+    <t>1111111111</t>
+  </si>
+  <si>
+    <t>2222222222</t>
+  </si>
+  <si>
+    <t>500000</t>
   </si>
 </sst>
 </file>
@@ -98,9 +135,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -434,4 +472,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="14.5234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>